--- a/static/downloads/33 Bưu điện Tỉnh Lào Cai.xlsx
+++ b/static/downloads/33 Bưu điện Tỉnh Lào Cai.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>334330_huyenlt</t>
+          <t>334360_liendt</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>334420_lienpt</t>
+          <t>332840_hailtt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>334520_chienbt</t>
+          <t>332561_tuonght</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>334360_liendt</t>
+          <t>332810_luannt</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>332840_hailtt</t>
+          <t>330000_habt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>331643_saotg</t>
+          <t>333546_xuanntt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>332561_tuonght</t>
+          <t>331901_namvt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>332810_luannt</t>
+          <t>334130_nhandt</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>330000_habt</t>
+          <t>334100_quynhhtx</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>333546_xuanntt</t>
+          <t>331390_tbc</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>331901_namvt</t>
+          <t>335300_huonglt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>334130_nhandt</t>
+          <t>331900_tbc</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>334460_khanhtt</t>
+          <t>335570_thuyttt</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>334100_quynhhtx</t>
+          <t>335540_phuonght</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>333546_anhht</t>
+          <t>335460_thoaihv</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>334100_thuyntt</t>
+          <t>334750_sanhlth</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>331390_tbc</t>
+          <t>335070_thiepht</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>335300_huonglt</t>
+          <t>335050_hunglt</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>331900_tbc</t>
+          <t>334960_tbc</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>335570_thuyttt</t>
+          <t>333230_pangmt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>335540_phuonght</t>
+          <t>333200_lylt</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>335460_thoaihv</t>
+          <t>333140_sayvt</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>334750_sanhlth</t>
+          <t>334810_bienlt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>335070_thiepht</t>
+          <t>334100_linhpk</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>335050_hunglt</t>
+          <t>336000_huedt</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>334960_tbc</t>
+          <t>331720_gdv</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>333230_pangmt</t>
+          <t>335660_hangnt</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>333200_lylt</t>
+          <t>335457_anhnt</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>333140_sayvt</t>
+          <t>335030_nguyetnt</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>333136_sauta</t>
+          <t>330000_sangnt</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>334810_bienlt</t>
+          <t>331030_nhamvt</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>331090_tuyennt</t>
+          <t>331253_ducnc</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>334100_linhpk</t>
+          <t>335070_tbc</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>334460_tbc</t>
+          <t>331370_hangvt</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>333570_tbc</t>
+          <t>333300_ruaga</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>336000_huedt</t>
+          <t>335490_nhunght</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>331720_gdv</t>
+          <t>334960_thietht</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>335660_hangnt</t>
+          <t>331000_thuht</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>331000_huongtt</t>
+          <t>335400_vuonht</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>335457_anhnt</t>
+          <t>330000_hientt</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>335030_nguyetnt</t>
+          <t>334740_doanva</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>330000_sangnt</t>
+          <t>330000_thuydtd</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>331030_nhamvt</t>
+          <t>330000_yendh</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>331253_ducnc</t>
+          <t>333420_loandt</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>335070_tbc</t>
+          <t>331685_tenhts</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>334860_hanhnt</t>
+          <t>336000_ngantt</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>331370_hangvt</t>
+          <t>334700_tbc</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>333300_ruaga</t>
+          <t>334930_nguyetmt</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>335490_nhunght</t>
+          <t>331360_chaovs</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>334960_thietht</t>
+          <t>334924_tuyetlt</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>331000_thuht</t>
+          <t>336000_huevt</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>335400_vuonht</t>
+          <t>334700_nhungnth</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>330000_hientt</t>
+          <t>333100_chinht</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>334740_doanva</t>
+          <t>335300_huyendtt</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>330000_thuydtd</t>
+          <t>333546_tbc</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>333546_cuongtv</t>
+          <t>332116_khangvl</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>330000_yendh</t>
+          <t>334880_muitt</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>333420_loandt</t>
+          <t>332260_phuongct</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>331685_tenhts</t>
+          <t>331152_sunggs</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>336000_ngantt</t>
+          <t>331000_hoavtq</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>332070_paost</t>
+          <t>333220_muoidt</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>334700_tbc</t>
+          <t>332160_paoc</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>334930_nguyetmt</t>
+          <t>333100_hiendt</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>331360_chaovs</t>
+          <t>333154_tuanlv</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>334924_tuyetlt</t>
+          <t>332740_havt</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>336000_huevt</t>
+          <t>335760_diuhtt</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>335730_hangntn</t>
+          <t>333162_thuonglt</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>334700_nhungnth</t>
+          <t>333546_huongttt</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>333100_chinht</t>
+          <t>330000_huongttt</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>334787_laitt</t>
+          <t>334330_liendt</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>333260_mayct</t>
+          <t>334520_hangnt</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>335300_huyendtt</t>
+          <t>334700_hanhlt</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>334728_nhatbo</t>
+          <t>333100_toantm</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>333546_tbc</t>
+          <t>330100_anhnd</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>332116_khangvl</t>
+          <t>335100_nghiadt</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>333315_huectt</t>
+          <t>335710_bohv</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>335590_honghv</t>
+          <t>333470_hongvt</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>334880_muitt</t>
+          <t>332740_ksv</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>332260_phuongct</t>
+          <t>333100_trahh</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>331152_sunggs</t>
+          <t>333890_thaibt</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>333470_hangqta</t>
+          <t>335730_trinhnk</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>331000_hoavtq</t>
+          <t>331900_yenpth</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>333220_muoidt</t>
+          <t>336000_phuong</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1624,394 +1624,10 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>335360_thudt</t>
+          <t>334830_thuht</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>332710_mata</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>332160_paoc</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>333570_hongnt</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>334994_thaovb</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>333100_hiendt</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>333154_tuanlv</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>332740_havt</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>335760_diuhtt</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>333162_thuonglt</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>331160_sangct</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>333546_huongttt</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>330000_huongttt</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>334330_liendt</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>334700_hangltt</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>334520_hangnt</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>334100_hanhdt</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>334700_hanhlt</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>333100_toantm</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>330100_anhnd</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>335100_nghiadt</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>335710_bohv</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>333470_hongvt</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>332740_ksv</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>333100_trahh</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>334360_hanhdt</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>333890_thaibt</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>334130_huyenlt</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>335730_trinhnk</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>331900_yenpth</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>336000_phuong</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>336000_huyentk</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>33_Bưu điện Tỉnh Lào Cai</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>334830_thuht</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
         <is>
           <t>33_Bưu điện Tỉnh Lào Cai</t>
         </is>
